--- a/bots/crawl_ch/output/electronics_2022-07-19.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-19.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-19 07:02:06</t>
+          <t>2022-07-19 20:57:39</t>
         </is>
       </c>
     </row>
